--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.302681603013635</v>
+        <v>1.353747141763602</v>
       </c>
       <c r="D2">
-        <v>0.1928621271181854</v>
+        <v>0.1895623177382468</v>
       </c>
       <c r="E2">
         <v>19.90998978890696</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.6371776817786002</v>
+        <v>0.4499373804056233</v>
       </c>
       <c r="D3">
-        <v>0.5240959828529252</v>
+        <v>0.6571577243561531</v>
       </c>
       <c r="E3">
         <v>19.90998978890696</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.884336895847628</v>
+        <v>1.713831849076387</v>
       </c>
       <c r="D4">
-        <v>0.0596920424574241</v>
+        <v>0.1006167898480195</v>
       </c>
       <c r="E4">
         <v>19.90998978890696</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.04682813774589425</v>
+        <v>0.04204420896542845</v>
       </c>
       <c r="D5">
-        <v>0.9626557719722266</v>
+        <v>0.9668427098033123</v>
       </c>
       <c r="E5">
         <v>19.90998978890696</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.8008033561307905</v>
+        <v>-0.858360284277333</v>
       </c>
       <c r="D6">
-        <v>0.4233587962145968</v>
+        <v>0.3999491017450074</v>
       </c>
       <c r="E6">
         <v>16.9830730408644</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.5166302489288762</v>
+        <v>0.5718977486511369</v>
       </c>
       <c r="D7">
-        <v>0.605482334196231</v>
+        <v>0.5731889804864032</v>
       </c>
       <c r="E7">
         <v>16.9830730408644</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.208011708181613</v>
+        <v>-1.278206925987671</v>
       </c>
       <c r="D8">
-        <v>0.2272128805563076</v>
+        <v>0.2144982848023247</v>
       </c>
       <c r="E8">
         <v>16.9830730408644</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.422065231059948</v>
+        <v>1.265188250742409</v>
       </c>
       <c r="D9">
-        <v>0.1551930491269884</v>
+        <v>0.2190409061330811</v>
       </c>
       <c r="E9">
         <v>18.78090562741738</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.456565832766183</v>
+        <v>-0.583173122523622</v>
       </c>
       <c r="D10">
-        <v>0.6480421975207813</v>
+        <v>0.565707573782456</v>
       </c>
       <c r="E10">
         <v>18.78090562741738</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.623344687803653</v>
+        <v>-1.550516962648961</v>
       </c>
       <c r="D11">
-        <v>0.1047034605399677</v>
+        <v>0.1352847225270906</v>
       </c>
       <c r="E11">
         <v>15.95943680838795</v>
